--- a/Mean17ClusterB.xlsx
+++ b/Mean17ClusterB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisanaumann/Desktop/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE33311-03A5-8D41-8508-94758DE903DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61612489-5C81-EE41-8F4F-5A76DD4664DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="26640" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="-21100" windowWidth="26640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <t>Clustergröße</t>
   </si>
   <si>
-    <t>VERGLEICH DER GRUPPENMITTELWERTE (17) CLUSTER</t>
+    <t>VERGLEICH DER GRUPPENMITTELWERTE - 17 CLUSTER</t>
   </si>
 </sst>
 </file>
@@ -739,9 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/Mean17ClusterB.xlsx
+++ b/Mean17ClusterB.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisanaumann/Desktop/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61612489-5C81-EE41-8F4F-5A76DD4664DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C15BE-E9C3-224E-8E69-F5E5F59F3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="-21100" windowWidth="26640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -253,9 +265,6 @@
     <t>mentalhealth_dicho</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Schulart (5Schultypen addiert  =1)</t>
   </si>
   <si>
@@ -299,13 +308,19 @@
   </si>
   <si>
     <t>VERGLEICH DER GRUPPENMITTELWERTE - 17 CLUSTER</t>
+  </si>
+  <si>
+    <t>Nges = 1642</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -319,6 +334,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -418,10 +440,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -434,15 +457,18 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,15 +763,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -877,7 +905,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -955,7 +983,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1257,7 +1285,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1335,7 +1363,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1469,7 +1497,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1715,7 +1743,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2073,7 +2101,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2823,7 +2851,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2901,7 +2929,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -3931,7 +3959,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -4009,7 +4037,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -4087,7 +4115,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -4277,7 +4305,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -4467,7 +4495,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -4540,7 +4568,80 @@
         <v>59</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
+        <f>A77/1642</f>
+        <v>2.4360535931790498E-2</v>
+      </c>
+      <c r="B78" s="20">
+        <f t="shared" ref="B78:Q78" si="0">B77/1642</f>
+        <v>0.43118148599269185</v>
+      </c>
+      <c r="C78" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1315468940316686E-2</v>
+      </c>
+      <c r="D78" s="20">
+        <f t="shared" si="0"/>
+        <v>0.12545676004872108</v>
+      </c>
+      <c r="E78" s="20">
+        <f t="shared" si="0"/>
+        <v>6.6991473812423874E-3</v>
+      </c>
+      <c r="F78" s="20">
+        <f t="shared" si="0"/>
+        <v>3.6540803897685749E-2</v>
+      </c>
+      <c r="G78" s="20">
+        <f t="shared" si="0"/>
+        <v>9.5006090133982951E-2</v>
+      </c>
+      <c r="H78" s="20">
+        <f t="shared" si="0"/>
+        <v>4.5066991473812421E-2</v>
+      </c>
+      <c r="I78" s="20">
+        <f t="shared" si="0"/>
+        <v>3.1059683313032885E-2</v>
+      </c>
+      <c r="J78" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5834348355663823E-2</v>
+      </c>
+      <c r="K78" s="20">
+        <f t="shared" si="0"/>
+        <v>4.933008526187576E-2</v>
+      </c>
+      <c r="L78" s="20">
+        <f t="shared" si="0"/>
+        <v>2.5578562728380026E-2</v>
+      </c>
+      <c r="M78" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3142509135200974E-2</v>
+      </c>
+      <c r="N78" s="20">
+        <f t="shared" si="0"/>
+        <v>1.4616321559074299E-2</v>
+      </c>
+      <c r="O78" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5834348355663823E-2</v>
+      </c>
+      <c r="P78" s="20">
+        <f t="shared" si="0"/>
+        <v>3.0450669914738123E-3</v>
+      </c>
+      <c r="Q78" s="20">
+        <f t="shared" si="0"/>
+        <v>3.5931790499390985E-2</v>
+      </c>
+      <c r="R78" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Mean17ClusterB.xlsx
+++ b/Mean17ClusterB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisanaumann/Desktop/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C15BE-E9C3-224E-8E69-F5E5F59F3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C268AC-845A-AF4F-A041-E58BF4BF1D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="-21100" windowWidth="26640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -345,6 +345,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -457,8 +472,6 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -466,6 +479,8 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -765,87 +780,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -904,26 +919,26 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -982,26 +997,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -1284,26 +1299,26 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1362,26 +1377,26 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -1496,26 +1511,26 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1742,26 +1757,26 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -2100,26 +2115,26 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -2850,26 +2865,26 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
@@ -2928,26 +2943,26 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
@@ -3958,26 +3973,26 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
@@ -4036,29 +4051,29 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
+      <c r="A67" s="15">
         <v>0.17499999999999999</v>
       </c>
       <c r="B67" s="2">
@@ -4067,10 +4082,10 @@
       <c r="C67" s="2">
         <v>0.314285714285714</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="15">
         <v>0.18932038834951501</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="15">
         <v>0.18181818181818199</v>
       </c>
       <c r="F67" s="7">
@@ -4114,26 +4129,26 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
@@ -4148,7 +4163,7 @@
       <c r="D69" s="10">
         <v>0.62621359223300999</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="16">
         <v>0.18181818181818199</v>
       </c>
       <c r="F69" s="2">
@@ -4204,7 +4219,7 @@
       <c r="D70" s="10">
         <v>0.62621359223300999</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="16">
         <v>0.36363636363636398</v>
       </c>
       <c r="F70" s="2">
@@ -4260,7 +4275,7 @@
       <c r="D71" s="2">
         <v>0.70388349514563098</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="16">
         <v>9.0909090909090898E-2</v>
       </c>
       <c r="F71" s="2">
@@ -4304,26 +4319,26 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
@@ -4371,7 +4386,7 @@
       <c r="O73" s="2">
         <v>0.38461538461538503</v>
       </c>
-      <c r="P73" s="18">
+      <c r="P73" s="16">
         <v>0</v>
       </c>
       <c r="Q73" s="2">
@@ -4494,26 +4509,26 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -4572,75 +4587,75 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="20">
+      <c r="A78" s="18">
         <f>A77/1642</f>
         <v>2.4360535931790498E-2</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="18">
         <f t="shared" ref="B78:Q78" si="0">B77/1642</f>
         <v>0.43118148599269185</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="18">
         <f t="shared" si="0"/>
         <v>2.1315468940316686E-2</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="18">
         <f t="shared" si="0"/>
         <v>0.12545676004872108</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="18">
         <f t="shared" si="0"/>
         <v>6.6991473812423874E-3</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="18">
         <f t="shared" si="0"/>
         <v>3.6540803897685749E-2</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G78" s="18">
         <f t="shared" si="0"/>
         <v>9.5006090133982951E-2</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="18">
         <f t="shared" si="0"/>
         <v>4.5066991473812421E-2</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="18">
         <f t="shared" si="0"/>
         <v>3.1059683313032885E-2</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="18">
         <f t="shared" si="0"/>
         <v>1.5834348355663823E-2</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="18">
         <f t="shared" si="0"/>
         <v>4.933008526187576E-2</v>
       </c>
-      <c r="L78" s="20">
+      <c r="L78" s="18">
         <f t="shared" si="0"/>
         <v>2.5578562728380026E-2</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="18">
         <f t="shared" si="0"/>
         <v>2.3142509135200974E-2</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="18">
         <f t="shared" si="0"/>
         <v>1.4616321559074299E-2</v>
       </c>
-      <c r="O78" s="20">
+      <c r="O78" s="18">
         <f t="shared" si="0"/>
         <v>1.5834348355663823E-2</v>
       </c>
-      <c r="P78" s="20">
+      <c r="P78" s="18">
         <f t="shared" si="0"/>
         <v>3.0450669914738123E-3</v>
       </c>
-      <c r="Q78" s="20">
+      <c r="Q78" s="18">
         <f t="shared" si="0"/>
         <v>3.5931790499390985E-2</v>
       </c>
-      <c r="R78" s="19">
+      <c r="R78" s="17">
         <v>1</v>
       </c>
     </row>

--- a/Mean17ClusterB.xlsx
+++ b/Mean17ClusterB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisanaumann/Desktop/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C268AC-845A-AF4F-A041-E58BF4BF1D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57BCF3E-A61F-C844-BE88-8BD1A7415F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="-21100" windowWidth="26640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>V1</t>
   </si>
@@ -265,6 +265,9 @@
     <t>mentalhealth_dicho</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Schulart (5Schultypen addiert  =1)</t>
   </si>
   <si>
@@ -310,7 +313,7 @@
     <t>VERGLEICH DER GRUPPENMITTELWERTE - 17 CLUSTER</t>
   </si>
   <si>
-    <t>Nges = 1642</t>
+    <t>MeansGesamt</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +448,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -459,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,6 +481,8 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -481,6 +492,7 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -778,91 +790,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R2" s="15"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -917,30 +931,34 @@
       <c r="R3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.6</v>
       </c>
@@ -995,30 +1013,34 @@
       <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="2">
+        <v>0.48599269183922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>0.35</v>
       </c>
@@ -1073,8 +1095,11 @@
       <c r="R7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2">
+        <v>0.232034104750305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>0.27500000000000002</v>
       </c>
@@ -1129,8 +1154,11 @@
       <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="2">
+        <v>0.14190012180268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>0.2</v>
       </c>
@@ -1185,8 +1213,11 @@
       <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="2">
+        <v>0.29902557856272799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.15</v>
       </c>
@@ -1241,8 +1272,11 @@
       <c r="R10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="2">
+        <v>0.27953714981729599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1297,30 +1331,34 @@
       <c r="R11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="2">
+        <v>4.7503045066991503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="13"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.82499999999999996</v>
       </c>
@@ -1375,30 +1413,34 @@
       <c r="R13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="2">
+        <v>0.74360535931790495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>0.4</v>
       </c>
@@ -1453,8 +1495,11 @@
       <c r="R15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="2">
+        <v>0.15468940316686999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>0.67500000000000004</v>
       </c>
@@ -1509,30 +1554,34 @@
       <c r="R16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="2">
+        <v>0.46285018270402001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.15</v>
       </c>
@@ -1587,8 +1636,11 @@
       <c r="R18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="2">
+        <v>0.20767356881851401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.2</v>
       </c>
@@ -1643,8 +1695,11 @@
       <c r="R19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="2">
+        <v>0.250913520097442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>0.4</v>
       </c>
@@ -1699,8 +1754,11 @@
       <c r="R20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="2">
+        <v>0.29171741778319099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.47499999999999998</v>
       </c>
@@ -1755,30 +1813,34 @@
       <c r="R21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="2">
+        <v>0.45432399512789301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.05</v>
       </c>
@@ -1833,8 +1895,11 @@
       <c r="R23" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="2">
+        <v>0.40925700365408002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.17499999999999999</v>
       </c>
@@ -1889,8 +1954,11 @@
       <c r="R24" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="2">
+        <v>0.12911084043849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>0.42499999999999999</v>
       </c>
@@ -1945,8 +2013,11 @@
       <c r="R25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="2">
+        <v>0.27283800243605399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>0.2</v>
       </c>
@@ -2001,8 +2072,11 @@
       <c r="R26" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="2">
+        <v>7.1863580998781998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.1</v>
       </c>
@@ -2057,8 +2131,11 @@
       <c r="R27" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="2">
+        <v>3.8976857490864797E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.05</v>
       </c>
@@ -2113,30 +2190,34 @@
       <c r="R28" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="2">
+        <v>7.7953714981729594E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -2191,8 +2272,11 @@
       <c r="R30" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="2">
+        <v>0.15468940316686999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -2247,8 +2331,11 @@
       <c r="R31" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="2">
+        <v>0.24299634591961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2303,8 +2390,11 @@
       <c r="R32" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="2">
+        <v>4.0194884287454297E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -2359,8 +2449,11 @@
       <c r="R33" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="2">
+        <v>0.134591961023142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -2415,8 +2508,11 @@
       <c r="R34" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="2">
+        <v>3.1668696711327597E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -2471,8 +2567,11 @@
       <c r="R35" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="2">
+        <v>2.4360535931790502E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -2527,8 +2626,11 @@
       <c r="R36" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="2">
+        <v>1.5834348355663799E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -2583,8 +2685,11 @@
       <c r="R37" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="2">
+        <v>1.6443361753958601E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -2639,8 +2744,11 @@
       <c r="R38" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2">
+        <v>4.9939098660170503E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -2695,8 +2803,11 @@
       <c r="R39" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="2">
+        <v>6.1510353227771E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -2751,8 +2862,11 @@
       <c r="R40" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="2">
+        <v>5.4202192448233898E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -2807,8 +2921,11 @@
       <c r="R41" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="2">
+        <v>6.9427527405602901E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -2863,30 +2980,34 @@
       <c r="R42" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="2">
+        <v>0.104141291108404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="13"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0.52500000000000002</v>
       </c>
@@ -2941,30 +3062,34 @@
       <c r="R44" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="2">
+        <v>0.45066991473812401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="13"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>0.2</v>
       </c>
@@ -3019,8 +3144,11 @@
       <c r="R46" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="2">
+        <v>0.18209500609013399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3075,8 +3203,11 @@
       <c r="R47" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="2">
+        <v>0.16077953714981699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.05</v>
       </c>
@@ -3131,8 +3262,11 @@
       <c r="R48" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="2">
+        <v>2.7405602923264299E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>0.22500000000000001</v>
       </c>
@@ -3187,8 +3321,11 @@
       <c r="R49" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="2">
+        <v>0.19366626065773401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>0.1</v>
       </c>
@@ -3243,8 +3380,11 @@
       <c r="R50" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="2">
+        <v>0.15347137637027999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3299,8 +3439,11 @@
       <c r="R51" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="2">
+        <v>9.8051157125456798E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>0.17499999999999999</v>
       </c>
@@ -3355,8 +3498,11 @@
       <c r="R52" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="2">
+        <v>7.4908647990255803E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3411,8 +3557,11 @@
       <c r="R53" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="2">
+        <v>4.5676004872107198E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>0.2</v>
       </c>
@@ -3467,8 +3616,11 @@
       <c r="R54" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="2">
+        <v>0.17295980511571299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3523,8 +3675,11 @@
       <c r="R55" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="2">
+        <v>4.3239951278928102E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3579,8 +3734,11 @@
       <c r="R56" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="2">
+        <v>4.9939098660170503E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>0.05</v>
       </c>
@@ -3635,8 +3793,11 @@
       <c r="R57" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="2">
+        <v>7.0645554202192401E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>0.17499999999999999</v>
       </c>
@@ -3691,8 +3852,11 @@
       <c r="R58" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="2">
+        <v>0.126674786845311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>0.1</v>
       </c>
@@ -3747,8 +3911,11 @@
       <c r="R59" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="2">
+        <v>7.7344701583434802E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -3803,8 +3970,11 @@
       <c r="R60" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="2">
+        <v>1.5225334957369101E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>0.05</v>
       </c>
@@ -3859,8 +4029,11 @@
       <c r="R61" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="2">
+        <v>7.6126674786845303E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>0.05</v>
       </c>
@@ -3915,8 +4088,11 @@
       <c r="R62" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="2">
+        <v>6.6382460414129096E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>0.1</v>
       </c>
@@ -3971,30 +4147,34 @@
       <c r="R63" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="2">
+        <v>0.118148599269184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="13"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>0.22500000000000001</v>
       </c>
@@ -4049,31 +4229,35 @@
       <c r="R65" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
+      <c r="S65" s="2">
+        <v>0.38855054811205803</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="13"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
         <v>0.17499999999999999</v>
       </c>
       <c r="B67" s="2">
@@ -4082,10 +4266,10 @@
       <c r="C67" s="2">
         <v>0.314285714285714</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="17">
         <v>0.18932038834951501</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="17">
         <v>0.18181818181818199</v>
       </c>
       <c r="F67" s="7">
@@ -4127,30 +4311,34 @@
       <c r="R67" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="2">
+        <v>0.246041412911084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="13"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>0.875</v>
       </c>
@@ -4163,7 +4351,7 @@
       <c r="D69" s="10">
         <v>0.62621359223300999</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="18">
         <v>0.18181818181818199</v>
       </c>
       <c r="F69" s="2">
@@ -4205,8 +4393,11 @@
       <c r="R69" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="2">
+        <v>0.82521315468940304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>0.85</v>
       </c>
@@ -4219,7 +4410,7 @@
       <c r="D70" s="10">
         <v>0.62621359223300999</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="18">
         <v>0.36363636363636398</v>
       </c>
       <c r="F70" s="2">
@@ -4261,8 +4452,11 @@
       <c r="R70" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="2">
+        <v>0.79963459196102304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>0.9</v>
       </c>
@@ -4275,7 +4469,7 @@
       <c r="D71" s="2">
         <v>0.70388349514563098</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="18">
         <v>9.0909090909090898E-2</v>
       </c>
       <c r="F71" s="2">
@@ -4317,30 +4511,34 @@
       <c r="R71" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="2">
+        <v>0.87393422655298403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="13"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>0.25</v>
       </c>
@@ -4386,7 +4584,7 @@
       <c r="O73" s="2">
         <v>0.38461538461538503</v>
       </c>
-      <c r="P73" s="16">
+      <c r="P73" s="18">
         <v>0</v>
       </c>
       <c r="Q73" s="2">
@@ -4395,8 +4593,11 @@
       <c r="R73" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="2">
+        <v>0.36358099878197297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>0.45</v>
       </c>
@@ -4451,8 +4652,11 @@
       <c r="R74" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="2">
+        <v>0.44518879415347101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>0.65</v>
       </c>
@@ -4507,30 +4711,34 @@
       <c r="R75" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="2">
+        <v>0.47624847746650401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="13"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>40</v>
       </c>
@@ -4583,79 +4791,83 @@
         <v>59</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
+        <v>77</v>
+      </c>
+      <c r="S77">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
         <f>A77/1642</f>
         <v>2.4360535931790498E-2</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="20">
         <f t="shared" ref="B78:Q78" si="0">B77/1642</f>
         <v>0.43118148599269185</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="20">
         <f t="shared" si="0"/>
         <v>2.1315468940316686E-2</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="20">
         <f t="shared" si="0"/>
         <v>0.12545676004872108</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="20">
         <f t="shared" si="0"/>
         <v>6.6991473812423874E-3</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="20">
         <f t="shared" si="0"/>
         <v>3.6540803897685749E-2</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="20">
         <f t="shared" si="0"/>
         <v>9.5006090133982951E-2</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="20">
         <f t="shared" si="0"/>
         <v>4.5066991473812421E-2</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I78" s="20">
         <f t="shared" si="0"/>
         <v>3.1059683313032885E-2</v>
       </c>
-      <c r="J78" s="18">
+      <c r="J78" s="20">
         <f t="shared" si="0"/>
         <v>1.5834348355663823E-2</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K78" s="20">
         <f t="shared" si="0"/>
         <v>4.933008526187576E-2</v>
       </c>
-      <c r="L78" s="18">
+      <c r="L78" s="20">
         <f t="shared" si="0"/>
         <v>2.5578562728380026E-2</v>
       </c>
-      <c r="M78" s="18">
+      <c r="M78" s="20">
         <f t="shared" si="0"/>
         <v>2.3142509135200974E-2</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N78" s="20">
         <f t="shared" si="0"/>
         <v>1.4616321559074299E-2</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O78" s="20">
         <f t="shared" si="0"/>
         <v>1.5834348355663823E-2</v>
       </c>
-      <c r="P78" s="18">
+      <c r="P78" s="20">
         <f t="shared" si="0"/>
         <v>3.0450669914738123E-3</v>
       </c>
-      <c r="Q78" s="18">
+      <c r="Q78" s="20">
         <f t="shared" si="0"/>
         <v>3.5931790499390985E-2</v>
       </c>
-      <c r="R78" s="17">
+      <c r="R78" s="19"/>
+      <c r="S78" s="19">
         <v>1</v>
       </c>
     </row>

--- a/Mean17ClusterB.xlsx
+++ b/Mean17ClusterB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisanaumann/Desktop/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57BCF3E-A61F-C844-BE88-8BD1A7415F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76CA5C-8C2B-2E48-8A98-C7AA238F2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="-21100" windowWidth="26640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,11 +792,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
@@ -1213,7 +1216,7 @@
       <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="7">
         <v>0.29902557856272799</v>
       </c>
     </row>
@@ -1272,7 +1275,7 @@
       <c r="R10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="6">
         <v>0.27953714981729599</v>
       </c>
     </row>
@@ -1895,7 +1898,7 @@
       <c r="R23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="7">
         <v>0.40925700365408002</v>
       </c>
     </row>
@@ -2013,7 +2016,7 @@
       <c r="R25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="6">
         <v>0.27283800243605399</v>
       </c>
     </row>
@@ -2272,7 +2275,7 @@
       <c r="R30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="6">
         <v>0.15468940316686999</v>
       </c>
     </row>
@@ -2331,7 +2334,7 @@
       <c r="R31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="7">
         <v>0.24299634591961</v>
       </c>
     </row>
@@ -2449,7 +2452,7 @@
       <c r="R33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="6">
         <v>0.134591961023142</v>
       </c>
     </row>
@@ -2980,7 +2983,7 @@
       <c r="R42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="6">
         <v>0.104141291108404</v>
       </c>
     </row>
@@ -3144,7 +3147,7 @@
       <c r="R46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="7">
         <v>0.18209500609013399</v>
       </c>
     </row>
@@ -3203,7 +3206,7 @@
       <c r="R47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="6">
         <v>0.16077953714981699</v>
       </c>
     </row>
@@ -3321,7 +3324,7 @@
       <c r="R49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="7">
         <v>0.19366626065773401</v>
       </c>
     </row>
@@ -3380,7 +3383,7 @@
       <c r="R50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="6">
         <v>0.15347137637027999</v>
       </c>
     </row>
@@ -3439,7 +3442,7 @@
       <c r="R51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="6">
         <v>9.8051157125456798E-2</v>
       </c>
     </row>
@@ -3616,7 +3619,7 @@
       <c r="R54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="7">
         <v>0.17295980511571299</v>
       </c>
     </row>
@@ -3852,7 +3855,7 @@
       <c r="R58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58" s="6">
         <v>0.126674786845311</v>
       </c>
     </row>
@@ -4147,7 +4150,7 @@
       <c r="R63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63" s="6">
         <v>0.118148599269184</v>
       </c>
     </row>
